--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D01513-E85B-4311-ADF3-7AFF9D9524E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F522221-4F08-45E2-95C0-69A2F656BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -584,21 +584,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -638,7 +638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -649,16 +649,16 @@
         <v>45191</v>
       </c>
       <c r="D3">
-        <v>416.1</v>
+        <v>41.61</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -738,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -778,7 +778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -818,7 +818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -858,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -878,7 +878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -908,13 +908,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EED1D-C7FE-42CB-A2C5-ACA4F32C54D7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -945,7 +945,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -956,7 +956,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -967,7 +967,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -978,7 +978,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -989,7 +989,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F522221-4F08-45E2-95C0-69A2F656BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B915B-84B5-4D7C-AFD5-A0637F8FE64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
         <v>177.45</v>
       </c>
       <c r="E2">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B915B-84B5-4D7C-AFD5-A0637F8FE64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BCE27-0D1C-4B54-B30F-644EFB3FEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>VHT</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>VOW.DE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hHlEtdnHVSg?si=9aJV9muFtm83t-fG</t>
   </si>
 </sst>
 </file>
@@ -582,23 +591,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -638,7 +647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -658,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -678,7 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -698,7 +707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -718,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -738,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -758,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -778,7 +787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -798,7 +807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -818,7 +827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -838,7 +847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -858,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -878,7 +887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -896,6 +905,26 @@
       </c>
       <c r="F15" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -912,9 +941,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -945,7 +974,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -956,7 +985,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -967,7 +996,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -978,7 +1007,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -989,7 +1018,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1040,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1022,7 +1051,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1033,7 +1062,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1044,7 +1073,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BCE27-0D1C-4B54-B30F-644EFB3FEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C18E6-E966-4FC6-9AB8-7B0084EDA536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C18E6-E966-4FC6-9AB8-7B0084EDA536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B159BCF-D798-4023-9F1A-7D241C985332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>97</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B159BCF-D798-4023-9F1A-7D241C985332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB39EC-0923-439F-BF1E-8EFE7AAFAF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>https://youtu.be/hHlEtdnHVSg?si=9aJV9muFtm83t-fG</t>
+  </si>
+  <si>
+    <t>Ubisoft</t>
+  </si>
+  <si>
+    <t>UBI.PA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p2d7v0gWAgQ</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +934,26 @@
       </c>
       <c r="F16" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D17">
+        <v>10.34</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB39EC-0923-439F-BF1E-8EFE7AAFAF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713B520-7B91-4E96-9D81-A038CB535C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
-    <sheet name="Sektoren" sheetId="2" r:id="rId2"/>
+    <sheet name="Indizes" sheetId="4" r:id="rId2"/>
+    <sheet name="Portfolio" sheetId="5" r:id="rId3"/>
+    <sheet name="Sektoren" sheetId="2" r:id="rId4"/>
+    <sheet name="Historie" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +242,30 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=p2d7v0gWAgQ</t>
+  </si>
+  <si>
+    <t>Palantir</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>Dow Jones Industrial Average</t>
+  </si>
+  <si>
+    <t>^DJI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ukMWzE13sM&amp;list=PL6yxkRQspkhg4lIhsAizxIABsMWPAw9FV&amp;index=5&amp;ab_channel=WorkLifeTalents</t>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Russell 200</t>
+  </si>
+  <si>
+    <t>^RUT</t>
   </si>
 </sst>
 </file>
@@ -600,23 +627,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -656,7 +683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -676,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -696,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -716,7 +743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -736,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -750,13 +777,13 @@
         <v>219.96</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -776,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -790,13 +817,13 @@
         <v>42270</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -816,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -836,124 +863,61 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="D12">
-        <v>162.94999999999999</v>
+        <v>400</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
-        <v>45413</v>
+        <v>45541</v>
       </c>
       <c r="D13">
-        <v>400</v>
+        <v>97</v>
       </c>
       <c r="E13">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
-        <v>45442</v>
+        <v>45653</v>
       </c>
       <c r="D14">
-        <v>481.9</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>520</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45442</v>
-      </c>
-      <c r="D15">
-        <v>58.66</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45541</v>
-      </c>
-      <c r="D16">
-        <v>97</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45569</v>
-      </c>
-      <c r="D17">
-        <v>10.34</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -963,6 +927,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD976ED7-7537-40EF-9ECB-701529F393DA}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206063AC-20A5-42E1-A444-EBDA5AC4D3F7}">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EED1D-C7FE-42CB-A2C5-ACA4F32C54D7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -970,9 +1023,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1003,7 +1056,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1014,7 +1067,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1025,7 +1078,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1036,7 +1089,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1047,7 +1100,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1058,7 +1111,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1069,7 +1122,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1080,7 +1133,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1091,7 +1144,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1102,7 +1155,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1111,6 +1164,121 @@
       </c>
       <c r="C12" s="1">
         <v>45443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6B08B-6763-4CFC-8E44-2A7960848995}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45412</v>
+      </c>
+      <c r="D2">
+        <v>162.94999999999999</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45442</v>
+      </c>
+      <c r="D3">
+        <v>481.9</v>
+      </c>
+      <c r="E3">
+        <v>520</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45442</v>
+      </c>
+      <c r="D4">
+        <v>58.66</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D5">
+        <v>10.34</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3713B520-7B91-4E96-9D81-A038CB535C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33130C17-6410-4F76-A6AE-86FEF2A92D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -259,13 +259,76 @@
     <t>https://www.youtube.com/watch?v=0ukMWzE13sM&amp;list=PL6yxkRQspkhg4lIhsAizxIABsMWPAw9FV&amp;index=5&amp;ab_channel=WorkLifeTalents</t>
   </si>
   <si>
-    <t>Gewichtung</t>
-  </si>
-  <si>
     <t>Russell 200</t>
   </si>
   <si>
     <t>^RUT</t>
+  </si>
+  <si>
+    <t>ZKB Gold CHF</t>
+  </si>
+  <si>
+    <t>Stück</t>
+  </si>
+  <si>
+    <t>Quantum ETF</t>
+  </si>
+  <si>
+    <t>iShares S&amp;P</t>
+  </si>
+  <si>
+    <t>VAT Group</t>
+  </si>
+  <si>
+    <t>Nebius</t>
+  </si>
+  <si>
+    <t>Kuehne und Nagel</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>Sika</t>
+  </si>
+  <si>
+    <t>Swatch Group</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>ZGLD.SW</t>
+  </si>
+  <si>
+    <t>iShares SPI</t>
+  </si>
+  <si>
+    <t>CHSPI.SW</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>IVV</t>
+  </si>
+  <si>
+    <t>VACN.SW</t>
+  </si>
+  <si>
+    <t>NBIS</t>
+  </si>
+  <si>
+    <t>KNIN.SW</t>
+  </si>
+  <si>
+    <t>SIKA.SW</t>
+  </si>
+  <si>
+    <t>UHR.SW</t>
+  </si>
+  <si>
+    <t>CSNDX.SW</t>
   </si>
 </sst>
 </file>
@@ -629,21 +692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -683,7 +746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -703,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -723,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -743,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -763,7 +826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -783,7 +846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -803,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -823,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -843,7 +906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -863,7 +926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -883,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -903,7 +966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -934,9 +997,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -970,12 +1033,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -985,15 +1048,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206063AC-20A5-42E1-A444-EBDA5AC4D3F7}">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,10 +1070,200 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>694.45</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>137.01</v>
+      </c>
+      <c r="D4">
+        <v>292</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>78.3</v>
+      </c>
+      <c r="D5">
         <v>76</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>590.95000000000005</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>338.8</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>30.51</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>201.68</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>101409</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>218.19</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>31.33</v>
+      </c>
+      <c r="D12">
+        <v>191</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>1222.42</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45646</v>
       </c>
     </row>
   </sheetData>
@@ -1023,9 +1279,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1056,7 +1312,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1067,7 +1323,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1078,7 +1334,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1089,7 +1345,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1100,7 +1356,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1111,7 +1367,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1122,7 +1378,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1133,7 +1389,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1144,7 +1400,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1155,7 +1411,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1179,9 +1435,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1241,7 +1497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33130C17-6410-4F76-A6AE-86FEF2A92D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D625C3C-F6A4-477B-B4ED-8815C1D7F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -329,13 +329,79 @@
   </si>
   <si>
     <t>CSNDX.SW</t>
+  </si>
+  <si>
+    <t>MSCI Asia ex Japan</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Kuehne&amp;Nagel</t>
+  </si>
+  <si>
+    <t>7974.T</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>R2US.L</t>
+  </si>
+  <si>
+    <t>SPDR Russell 2000</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>SPDR MSCI EMU</t>
+  </si>
+  <si>
+    <t>EMUE.PA</t>
+  </si>
+  <si>
+    <t>AEJ.L</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Initial investment</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>GBP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,13 +417,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,15 +448,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,7 +1083,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,226 +1137,598 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206063AC-20A5-42E1-A444-EBDA5AC4D3F7}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="7">
+        <v>100000</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>91483</v>
+      </c>
+      <c r="D2" s="4">
+        <f>$I$1/VLOOKUP(E2,$J$3:$K$6,2,FALSE)*F2/C2</f>
+        <v>5.9686538404728366E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="C3">
-        <v>694.45</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>729.5</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D17" si="0">$I$1/VLOOKUP(E3,$J$3:$K$6,2,FALSE)*F3/C3</f>
+        <v>6.8540095956134337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3">
+        <v>0.91569999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
-        <v>137.01</v>
-      </c>
-      <c r="D4">
-        <v>292</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="5">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6">
+        <f>$I$1/VLOOKUP(E4,$J$3:$K$6,2,FALSE)*F4/C4</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
+        <v>0.93879999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5">
+        <v>579</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>28.291728460516914</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5">
+        <f>0.0058</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="L5" s="8">
+        <f>I1/K5</f>
+        <v>17241379.31034483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5">
+        <v>57.46</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>87.0170553428472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <f>$I$1/VLOOKUP(E7,$J$3:$K$6,2,FALSE)*F7/C7</f>
+        <v>65.325320094068459</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45670</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7">
+        <v>0.89978906999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="5">
+        <v>68.19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45670</v>
+      </c>
+      <c r="I8" s="8">
+        <f>I1*K7</f>
+        <v>89978.906999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5">
+        <v>231</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.4550711565017576</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9">
+        <v>78.3</v>
+      </c>
+      <c r="O9">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>78.3</v>
-      </c>
-      <c r="D5">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>135.91</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>16.070351240908732</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>389</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6147080646578553</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>338.8</v>
+      </c>
+      <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6">
-        <v>590.95000000000005</v>
-      </c>
-      <c r="D6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="5">
+        <v>217.4</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>9.1996320147194108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12">
+        <v>30.51</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9170</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="10">
+        <f>D13*C13*K5/I1</f>
+        <v>5.3185999999999997E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13">
+        <v>201.68</v>
+      </c>
+      <c r="O13">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5">
+        <v>18.84</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>115.93001258768078</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5">
+        <v>31.79</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>68.704669303299966</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15">
+        <v>218.19</v>
+      </c>
+      <c r="O15">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
+      <c r="Q15" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7">
-        <v>338.8</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5">
+        <v>201.3</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9354197714853445</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>31.33</v>
+      </c>
+      <c r="O16">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8">
-        <v>30.51</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9">
-        <v>201.68</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>88.9</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>24.568295131067558</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45670</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17">
+        <v>1222.42</v>
+      </c>
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>101409</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11">
-        <v>218.19</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12">
-        <v>31.33</v>
-      </c>
-      <c r="D12">
-        <v>191</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>1222.42</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45646</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="3">
+        <f>1-SUM(F2:F17)</f>
+        <v>3.6813999999999791E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45670</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D625C3C-F6A4-477B-B4ED-8815C1D7F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B0ED9-3535-4A3B-BB8C-09473907F857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B0ED9-3535-4A3B-BB8C-09473907F857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91E449-590E-4543-B3F2-984F53CB0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
         <v>79</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206063AC-20A5-42E1-A444-EBDA5AC4D3F7}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91E449-590E-4543-B3F2-984F53CB0D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0328FAE-E43A-4FDD-A1D2-D85C0B124000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>Monster Beverage Corporation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l4hxExBUGwE&amp;t=1318s</t>
+  </si>
+  <si>
+    <t>CELH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celsius Holdings, Inc. </t>
   </si>
 </sst>
 </file>
@@ -779,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,6 +1085,40 @@
       </c>
       <c r="E14">
         <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D15">
+        <v>49.25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D16">
+        <v>22.34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0328FAE-E43A-4FDD-A1D2-D85C0B124000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A415A19-371B-4DB7-A5D7-9A8F66A8F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
     <sheet name="Indizes" sheetId="4" r:id="rId2"/>
     <sheet name="Portfolio" sheetId="5" r:id="rId3"/>
-    <sheet name="Sektoren" sheetId="2" r:id="rId4"/>
-    <sheet name="Historie" sheetId="3" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sektoren" sheetId="2" r:id="rId5"/>
+    <sheet name="Historie" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -404,6 +405,219 @@
   </si>
   <si>
     <t xml:space="preserve">Celsius Holdings, Inc. </t>
+  </si>
+  <si>
+    <t>Performance in %</t>
+  </si>
+  <si>
+    <t>Volatilität</t>
+  </si>
+  <si>
+    <t>Yahoo Tickers</t>
+  </si>
+  <si>
+    <t>Fondsname</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Fonds Whg.</t>
+  </si>
+  <si>
+    <t>Fondsgröße (in Mio. CHF)</t>
+  </si>
+  <si>
+    <t>TER p.a.</t>
+  </si>
+  <si>
+    <t>Anbieter</t>
+  </si>
+  <si>
+    <t>1 J.</t>
+  </si>
+  <si>
+    <t>3 J.</t>
+  </si>
+  <si>
+    <t>5 J.</t>
+  </si>
+  <si>
+    <t>Ausschüttung</t>
+  </si>
+  <si>
+    <t>Fondsdomizil</t>
+  </si>
+  <si>
+    <t>Replikation</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>XSMI.SW</t>
+  </si>
+  <si>
+    <t>Xtrackers Switzerland UCITS ETF 1D</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>Ausschüttend</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Physisch</t>
+  </si>
+  <si>
+    <t>LU0274221281</t>
+  </si>
+  <si>
+    <t>SMICHA.SW</t>
+  </si>
+  <si>
+    <t>UBS ETF (CH) SMI</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>CH0017142719</t>
+  </si>
+  <si>
+    <t>SMIEX.SW</t>
+  </si>
+  <si>
+    <t>iShares SMI ETF</t>
+  </si>
+  <si>
+    <t>iShares</t>
+  </si>
+  <si>
+    <t>CH0008899764</t>
+  </si>
+  <si>
+    <t>XSMC.SW</t>
+  </si>
+  <si>
+    <t>Xtrackers Switzerland UCITS ETF 1C</t>
+  </si>
+  <si>
+    <t>Thesaurierend</t>
+  </si>
+  <si>
+    <t>LU0943504760</t>
+  </si>
+  <si>
+    <t>0P0000YWRS.SW</t>
+  </si>
+  <si>
+    <t>UBS (CH) Index Fund - Equities Switzerland Large Capped NSL A-acc Fonds</t>
+  </si>
+  <si>
+    <t>CH0214404714</t>
+  </si>
+  <si>
+    <t>0P0000WKJL.SW</t>
+  </si>
+  <si>
+    <t>UBS (CH) Index Fund - Equities Switzerland All NSL A-acc Fonds</t>
+  </si>
+  <si>
+    <t>CH0190771862</t>
+  </si>
+  <si>
+    <t>iShares Core SPI ETF</t>
+  </si>
+  <si>
+    <t>SPI SWISS PERFORMANCE INDEX (TR)</t>
+  </si>
+  <si>
+    <t>CH0237935652</t>
+  </si>
+  <si>
+    <t>SPICHA.SW</t>
+  </si>
+  <si>
+    <t>UBS ETF (CH) SPI</t>
+  </si>
+  <si>
+    <t>SPI® TOTAL RETURN (TR)</t>
+  </si>
+  <si>
+    <t>CH0131872431</t>
+  </si>
+  <si>
+    <t>SMMCHA.SW</t>
+  </si>
+  <si>
+    <t>UBS ETF (CH) SMIM</t>
+  </si>
+  <si>
+    <t>SMIM</t>
+  </si>
+  <si>
+    <t>CH0111762537</t>
+  </si>
+  <si>
+    <t>0P0001CCXR.SW</t>
+  </si>
+  <si>
+    <t>UBS (CH) Investment Fund - Equities Switzerland Passive Leader</t>
+  </si>
+  <si>
+    <t>CH0389550945</t>
+  </si>
+  <si>
+    <t>XSLI.SW</t>
+  </si>
+  <si>
+    <t>Xtrackers SLI UCITS ETF 1D</t>
+  </si>
+  <si>
+    <t>SLI SWISS LEADER INDEX</t>
+  </si>
+  <si>
+    <t>LU0322248146</t>
+  </si>
+  <si>
+    <t>CSSLI.SW</t>
+  </si>
+  <si>
+    <t>iShares SLI ETF</t>
+  </si>
+  <si>
+    <t>CH0031768937</t>
+  </si>
+  <si>
+    <t>SLICHA.SW</t>
+  </si>
+  <si>
+    <t>UBS ETF (CH) SLI</t>
+  </si>
+  <si>
+    <t>CH0032912732</t>
+  </si>
+  <si>
+    <t>CHDVD.SW</t>
+  </si>
+  <si>
+    <t>iShares Swiss Dividend ETF</t>
+  </si>
+  <si>
+    <t>SPI® SELECT DIVIDEND 20 (TR)</t>
+  </si>
+  <si>
+    <t>CH0237935637</t>
   </si>
 </sst>
 </file>
@@ -416,7 +630,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +653,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +687,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,12 +702,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,9 +738,66 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,6 +811,1269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-FE32-45F5-8BBC-7F53361A1C64}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Portfolio!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>BTC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZKB Gold CHF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iShares SPI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iShares S&amp;P</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPDR Russell 2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SPDR MSCI EMU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MSCI Asia ex Japan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nvidia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tesla</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sika</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nintendo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nebius</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Kuehne&amp;Nagel</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Albemarle</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Portfolio!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3185999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6813999999999791E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0293-455C-A7DD-2FF5F6960013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755430</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>735723</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA39E2D-FEF6-5F9C-37E6-83CADCBA21D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1188,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206063AC-20A5-42E1-A444-EBDA5AC4D3F7}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,10 +3357,605 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3438C50B-3BB3-4805-BC4B-EAAC0CBCC723}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>1860</v>
+      </c>
+      <c r="F3" s="20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>2910</v>
+      </c>
+      <c r="F4" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="N4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>2172</v>
+      </c>
+      <c r="F5" s="25">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="N5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>1860</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="N6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7">
+        <v>2727</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>10141</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>4072</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="N9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>1609</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="N10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>1409</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="N11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>314</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>676</v>
+      </c>
+      <c r="F14" s="25">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>1385</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>4392</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EED1D-C7FE-42CB-A2C5-ACA4F32C54D7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1937,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6B08B-6763-4CFC-8E44-2A7960848995}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A415A19-371B-4DB7-A5D7-9A8F66A8F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715CA16F-C96C-4669-A16E-BFDAB3BC9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="3" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
     <sheet name="Indizes" sheetId="4" r:id="rId2"/>
     <sheet name="Portfolio" sheetId="5" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId4"/>
+    <sheet name="CH" sheetId="6" r:id="rId4"/>
     <sheet name="Sektoren" sheetId="2" r:id="rId5"/>
     <sheet name="Historie" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -405,15 +405,6 @@
   </si>
   <si>
     <t xml:space="preserve">Celsius Holdings, Inc. </t>
-  </si>
-  <si>
-    <t>Performance in %</t>
-  </si>
-  <si>
-    <t>Volatilität</t>
-  </si>
-  <si>
-    <t>Yahoo Tickers</t>
   </si>
   <si>
     <t>Fondsname</t>
@@ -630,7 +621,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,13 +640,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -726,7 +710,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,51 +722,44 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2379,17 +2356,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2429,7 +2406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2449,7 +2426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2489,7 +2466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +2486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2529,7 +2506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2629,7 +2606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +2626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2666,7 +2643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2683,7 +2660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2714,9 +2691,9 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2750,7 +2727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2771,13 +2748,13 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2836,7 +2813,7 @@
         <v>45668</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2843,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -2896,7 +2873,7 @@
         <v>0.93879999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2931,7 +2908,7 @@
         <v>17241379.31034483</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2961,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2991,7 +2968,7 @@
         <v>0.89978906999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3018,7 +2995,7 @@
         <v>89978.906999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3034,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3058,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3097,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3159,7 +3136,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3198,7 +3175,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3222,7 +3199,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3261,7 +3238,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3300,7 +3277,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3339,7 +3316,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3363,594 +3340,567 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3438C50B-3BB3-4805-BC4B-EAAC0CBCC723}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+    <row r="1" spans="1:17" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="H1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="12"/>
       <c r="L1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>1860</v>
+      </c>
+      <c r="F2" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>141</v>
       </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>2910</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="N3" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>2172</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>1860</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="N5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E3">
-        <v>1860</v>
-      </c>
-      <c r="F3" s="20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="E6">
+        <v>2727</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" t="s">
         <v>144</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4">
-        <v>2910</v>
-      </c>
-      <c r="F4" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="N4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5">
-        <v>2172</v>
-      </c>
-      <c r="F5" s="25">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
-        <v>152</v>
-      </c>
-      <c r="P5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6">
-        <v>1860</v>
-      </c>
-      <c r="F6" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="N6" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P6" t="s">
-        <v>147</v>
       </c>
       <c r="Q6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E7">
-        <v>2727</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="30" t="s">
-        <v>151</v>
+        <v>10141</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E8">
-        <v>10141</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="30" t="s">
-        <v>151</v>
-      </c>
+        <v>4072</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="N8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E9">
-        <v>4072</v>
-      </c>
-      <c r="F9" s="25">
+        <v>1609</v>
+      </c>
+      <c r="F9" s="22">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E10">
-        <v>1609</v>
-      </c>
-      <c r="F10" s="25">
-        <v>1E-3</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+        <v>1409</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="N10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E11">
-        <v>1409</v>
-      </c>
-      <c r="F11" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="30" t="s">
-        <v>151</v>
-      </c>
+      <c r="E12">
+        <v>314</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="N12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E13">
-        <v>314</v>
-      </c>
-      <c r="F13" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G13" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s">
         <v>144</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="N13" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" t="s">
-        <v>147</v>
       </c>
       <c r="Q13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E14">
-        <v>676</v>
-      </c>
-      <c r="F14" s="25">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+        <v>1385</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E15">
-        <v>1385</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+        <v>4392</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>192</v>
       </c>
-      <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16">
-        <v>4392</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="N16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3963,9 +3913,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3996,7 +3946,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -4007,7 +3957,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -4018,7 +3968,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +3979,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4040,7 +3990,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -4051,7 +4001,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -4062,7 +4012,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -4073,7 +4023,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -4084,7 +4034,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -4095,7 +4045,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -4119,9 +4069,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4161,7 +4111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -4181,7 +4131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4201,7 +4151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>

--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715CA16F-C96C-4669-A16E-BFDAB3BC9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD2DF8-2B85-490A-ABF8-3F8CE9C3D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
     <sheet name="Indizes" sheetId="4" r:id="rId2"/>
     <sheet name="Portfolio" sheetId="5" r:id="rId3"/>
-    <sheet name="CH" sheetId="6" r:id="rId4"/>
-    <sheet name="Sektoren" sheetId="2" r:id="rId5"/>
-    <sheet name="Historie" sheetId="3" r:id="rId6"/>
+    <sheet name="Sektoren" sheetId="2" r:id="rId4"/>
+    <sheet name="Historie" sheetId="3" r:id="rId5"/>
+    <sheet name="ETF-CH" sheetId="6" r:id="rId6"/>
+    <sheet name="ETF-US" sheetId="7" r:id="rId7"/>
+    <sheet name="ETF-EURO" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -609,6 +611,12 @@
   </si>
   <si>
     <t>CH0237935637</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gcZcI7p6qCU?feature=shared</t>
   </si>
 </sst>
 </file>
@@ -621,7 +629,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +664,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -705,12 +721,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,9 +788,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2350,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B642C486-D0CD-4B89-B6D9-C16E7A2F3A11}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2677,9 +2696,32 @@
         <v>122</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45709</v>
+      </c>
+      <c r="D17">
+        <v>343</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{27BE8121-8DD5-43D4-8ADD-64FAA819528D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3339,573 +3381,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3438C50B-3BB3-4805-BC4B-EAAC0CBCC723}">
-  <dimension ref="A1:Q15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2">
-        <v>1860</v>
-      </c>
-      <c r="F2" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3">
-        <v>2910</v>
-      </c>
-      <c r="F3" s="22">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4">
-        <v>2172</v>
-      </c>
-      <c r="F4" s="22">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5">
-        <v>1860</v>
-      </c>
-      <c r="F5" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="N5" t="s">
-        <v>157</v>
-      </c>
-      <c r="O5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6">
-        <v>2727</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7">
-        <v>10141</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" t="s">
-        <v>157</v>
-      </c>
-      <c r="O7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8">
-        <v>4072</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="N8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9">
-        <v>1609</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="N9" t="s">
-        <v>142</v>
-      </c>
-      <c r="O9" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10">
-        <v>1409</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="N10" t="s">
-        <v>142</v>
-      </c>
-      <c r="O10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" t="s">
-        <v>149</v>
-      </c>
-      <c r="P11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12">
-        <v>314</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="N12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13">
-        <v>676</v>
-      </c>
-      <c r="F13" s="22">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="N13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O13" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14">
-        <v>1385</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="N14" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15">
-        <v>4392</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="N15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O15" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EED1D-C7FE-42CB-A2C5-ACA4F32C54D7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4061,12 +3536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6B08B-6763-4CFC-8E44-2A7960848995}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,4 +3649,603 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3438C50B-3BB3-4805-BC4B-EAAC0CBCC723}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>1860</v>
+      </c>
+      <c r="F2" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>2910</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>2172</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>1860</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="N5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>2727</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7">
+        <v>10141</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>4072</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="N8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>1609</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="N9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>1409</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="N10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <v>314</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>676</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>1385</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>4392</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77409BB3-6098-474F-936F-72F423D8FA65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84113DA9-663E-411E-9406-8D3992C7F8E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/WLT-Titelliste.xlsx
+++ b/docs/WLT-Titelliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Stock-Report\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03-Hobby\06-Trading\06-WLT\GitHub\Stock-Report\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD2DF8-2B85-490A-ABF8-3F8CE9C3D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5444E81-7755-4841-A92E-85E5B29E637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
+    <workbookView xWindow="18525" yWindow="1320" windowWidth="19035" windowHeight="14355" activeTab="5" xr2:uid="{10355630-FB1F-48EF-9919-EA5EA3AA34DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aktien" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -617,6 +617,150 @@
   </si>
   <si>
     <t>https://youtu.be/gcZcI7p6qCU?feature=shared</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P 500 UCITS ETF USD (Acc)</t>
+  </si>
+  <si>
+    <t>Vanguard S&amp;P 500 UCITS ETF (USD) Distributing</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 UCITS ETF</t>
+  </si>
+  <si>
+    <t>Vanguard S&amp;P 500 UCITS ETF (USD) Accumulating</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P 500 UCITS ETF USD (Dist)</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 UCITS ETF (Dist)</t>
+  </si>
+  <si>
+    <t>iShares S&amp;P 500 Swap UCITS ETF USD (Acc)</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 UCITS ETF (Acc)</t>
+  </si>
+  <si>
+    <t>HSBC S&amp;P 500 UCITS ETF USD</t>
+  </si>
+  <si>
+    <t>Xtrackers S&amp;P 500 Swap UCITS ETF 1D</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 UCITS ETF Dist</t>
+  </si>
+  <si>
+    <t>Xtrackers S&amp;P 500 Swap UCITS ETF 1C</t>
+  </si>
+  <si>
+    <t>Amundi ETF S&amp;P 500 UCITS ETF USD</t>
+  </si>
+  <si>
+    <t>Amundi S&amp;P 500 II UCITS ETF USD Dist</t>
+  </si>
+  <si>
+    <t>Amundi S&amp;P 500 II UCITS ETF CHF Hedged Dist</t>
+  </si>
+  <si>
+    <t>Xtrackers S&amp;P 500 UCITS ETF 3C CHF hedged</t>
+  </si>
+  <si>
+    <t>IE00B5BMR087</t>
+  </si>
+  <si>
+    <t>IE00B3XXRP09</t>
+  </si>
+  <si>
+    <t>IE00B3YCGJ38</t>
+  </si>
+  <si>
+    <t>IE00BFMXXD54</t>
+  </si>
+  <si>
+    <t>IE0031442068</t>
+  </si>
+  <si>
+    <t>IE00B6YX5C33</t>
+  </si>
+  <si>
+    <t>IE00BMTX1Y45</t>
+  </si>
+  <si>
+    <t>IE000XZSV718</t>
+  </si>
+  <si>
+    <t>IE00B5KQNG97</t>
+  </si>
+  <si>
+    <t>LU2009147757</t>
+  </si>
+  <si>
+    <t>IE00BYML9W36</t>
+  </si>
+  <si>
+    <t>LU0490618542</t>
+  </si>
+  <si>
+    <t>LU1681049018</t>
+  </si>
+  <si>
+    <t>LU0496786657</t>
+  </si>
+  <si>
+    <t>LU1302703878</t>
+  </si>
+  <si>
+    <t>IE00B8KMSQ34</t>
+  </si>
+  <si>
+    <t>CSSPX.MI</t>
+  </si>
+  <si>
+    <t>VUSD.L</t>
+  </si>
+  <si>
+    <t>SPXS.L</t>
+  </si>
+  <si>
+    <t>VUAA.L</t>
+  </si>
+  <si>
+    <t>IDUS.L</t>
+  </si>
+  <si>
+    <t>SPY5.L</t>
+  </si>
+  <si>
+    <t>I500.AS</t>
+  </si>
+  <si>
+    <t>SPYL.L</t>
+  </si>
+  <si>
+    <t>HSPD.L</t>
+  </si>
+  <si>
+    <t>XSXD.L</t>
+  </si>
+  <si>
+    <t>SPXD.SW</t>
+  </si>
+  <si>
+    <t>XSPU.L</t>
+  </si>
+  <si>
+    <t>500U.L</t>
+  </si>
+  <si>
+    <t>LSPU.L</t>
+  </si>
+  <si>
+    <t>LYSPH.SW</t>
+  </si>
+  <si>
+    <t>XDPC.SW</t>
   </si>
 </sst>
 </file>
@@ -629,7 +773,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +817,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +843,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -720,6 +876,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -727,7 +903,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +965,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2375,17 +2581,17 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2425,7 +2631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2465,7 +2671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2545,7 +2751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2565,7 +2771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2605,7 +2811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2625,7 +2831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2645,7 +2851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2662,7 +2868,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2679,7 +2885,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2696,7 +2902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -2733,9 +2939,9 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2769,7 +2975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2790,13 +2996,13 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +3034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +3061,7 @@
         <v>45668</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2885,7 +3091,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -2915,7 +3121,7 @@
         <v>0.93879999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2950,7 +3156,7 @@
         <v>17241379.31034483</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2980,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3216,7 @@
         <v>0.89978906999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3037,7 +3243,7 @@
         <v>89978.906999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3076,7 +3282,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3306,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +3345,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3178,7 +3384,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3217,7 +3423,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3241,7 +3447,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3280,7 +3486,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3319,7 +3525,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3358,7 +3564,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3388,9 +3594,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3421,7 +3627,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +3638,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +3649,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3454,7 +3660,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3465,7 +3671,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3476,7 +3682,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3487,7 +3693,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -3498,7 +3704,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -3509,7 +3715,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3520,7 +3726,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3544,9 +3750,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3586,7 +3792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3606,7 +3812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3626,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -3656,16 +3862,16 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -3716,7 +3922,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>138</v>
       </c>
@@ -3757,7 +3963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -3794,7 +4000,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -3831,7 +4037,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -3868,7 +4074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -3899,7 +4105,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -3930,7 +4136,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3967,7 +4173,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -4004,7 +4210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4041,7 +4247,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -4052,6 +4258,9 @@
       <c r="D11" s="26" t="s">
         <v>110</v>
       </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="27" t="s">
         <v>148</v>
@@ -4069,7 +4278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -4106,7 +4315,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -4143,7 +4352,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -4180,7 +4389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -4224,15 +4433,382 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77409BB3-6098-474F-936F-72F423D8FA65}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="31">
+        <v>100196</v>
+      </c>
+      <c r="E2" s="32">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="35">
+        <v>41441</v>
+      </c>
+      <c r="E3" s="36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="35">
+        <v>27466</v>
+      </c>
+      <c r="E4" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="35">
+        <v>18576</v>
+      </c>
+      <c r="E5" s="36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="35">
+        <v>16987</v>
+      </c>
+      <c r="E6" s="36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="35">
+        <v>12458</v>
+      </c>
+      <c r="E7" s="36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="35">
+        <v>8135</v>
+      </c>
+      <c r="E8" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="35">
+        <v>7282</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="35">
+        <v>6926</v>
+      </c>
+      <c r="E10" s="36">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="35">
+        <v>5402</v>
+      </c>
+      <c r="E11" s="36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="35">
+        <v>5006</v>
+      </c>
+      <c r="E12" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="35">
+        <v>4081</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3357</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2884</v>
+      </c>
+      <c r="E15" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="35">
+        <v>83</v>
+      </c>
+      <c r="E16" s="36">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="35">
+        <v>31</v>
+      </c>
+      <c r="E17" s="36">
+        <v>2E-3</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B5BMR087" xr:uid="{A9F689B3-9A9F-4EA9-8380-ACF8C4C8EE10}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B3XXRP09" xr:uid="{859A8033-EC32-4AFA-B44E-6FBA59B61EDE}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B3YCGJ38" xr:uid="{DBF71782-9DE9-4F01-8469-9063441A17FA}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.justetf.com/de/etf-profile.html?isin=IE00BFMXXD54" xr:uid="{2069182E-1832-4D04-A031-E328880FDDC0}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.justetf.com/de/etf-profile.html?isin=IE0031442068" xr:uid="{6E007E8A-2045-4D71-8108-16EEEE5BE22B}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B6YX5C33" xr:uid="{EDAAB11C-1F37-4E9B-9A59-6E52D551B6CE}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.justetf.com/de/etf-profile.html?isin=IE00BMTX1Y45" xr:uid="{2884EF40-F07F-45B7-B351-FD3DA8ABEEC6}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.justetf.com/de/etf-profile.html?isin=IE000XZSV718" xr:uid="{3010E839-FEBE-4624-BE28-55F3557BA36D}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B5KQNG97" xr:uid="{C0C3AB20-FC3F-40F1-A219-BE5EBDE73FB3}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.justetf.com/de/etf-profile.html?isin=LU2009147757" xr:uid="{B05FD122-4D2A-4EE0-93FC-A58EF8BE42B6}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.justetf.com/de/etf-profile.html?isin=IE00BYML9W36" xr:uid="{5B98A850-2DED-4882-9A31-CF700A59A419}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.justetf.com/de/etf-profile.html?isin=LU0490618542" xr:uid="{CC281E88-6873-47C3-9A37-3D77A3C8A83D}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.justetf.com/de/etf-profile.html?isin=LU1681049018" xr:uid="{4B96B60B-E6DB-410E-96F6-C2CFDA23A200}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.justetf.com/de/etf-profile.html?isin=LU0496786657" xr:uid="{D05A8D2E-02C2-4EB7-A34A-6F1E1EEBD038}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.justetf.com/de/etf-profile.html?isin=LU1302703878" xr:uid="{EBACB125-920E-436E-9A77-C990FAAECA34}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.justetf.com/de/etf-profile.html?isin=IE00B8KMSQ34" xr:uid="{159B9358-2B44-4233-B35F-94CAAC43A94B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4244,7 +4820,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
